--- a/Data/Input/addresses.xlsx
+++ b/Data/Input/addresses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kodowanie\UIPath\JobBoardsLogger\JobBoardsLogger\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2D57F1-CDC4-43A1-9084-C719C49B255F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDF65E2-7FBF-414C-8FED-F33CB6C6E430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A25" sqref="A6:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,12 +504,12 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
